--- a/biology/Botanique/Ets_Latour-Marliac/Ets_Latour-Marliac.xlsx
+++ b/biology/Botanique/Ets_Latour-Marliac/Ets_Latour-Marliac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Latour-Marliac est un jardin de 2,5 hectares situé au cœur du village du Temple-sur-Lot.
 En 1850, il existait déjà. Sa principale activité à cette époque était la vente de bambous et Mr Latour-Marliac a introduit 4 variétés en Europe.
@@ -514,7 +526,9 @@
           <t>Joseph Bory Latour-Marliac</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né en 1830 à Granges-sur-Lot (à 8 km de Latour-Marliac). Son père était naturaliste et horticulteur. En 1848, Bory LM a 18 ans et part vivre à Paris pour des études de Droit. Mais il se rend compte que cet univers ne lui plaît pas. La révolution faisant rage, il décide de revenir à Granges s/Lot pour aider son père à entretenir ses terres, d’autant plus qu’il vient de perdre son épouse. Pendant près de sa mort
 2 ans, LM reste aux côtés de son père pour l’épauler, avant de prendre son envol et poursuivre dans la vie active seul. C’est alors qu’il fait l’acquisition d’une pépinière qu’il baptise 'Latour-Marliac'. Son objectif premier est de créer la plus grande collection de bambous d’Europe. Il parvient à introduire des nouvelles variétés (dont 4 existent encore aujourd’hui) et à les cultiver.
@@ -548,7 +562,9 @@
           <t>JB Latour-Marliac et Claude Monet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est à l'occasion de l'Exposition Universelle de 1889 qu'il conquiert le cœur du célèbre peintre Claude Monet, présent parmi les spectateurs de l’exposition. Il était à l’époque locataire de la propriété de Giverny. A la vue des nénuphars, il tombe sous le charme et décide d’acheter Giverny afin d’y construire un jardin d’eau et d'y planter les créations de Latour-Marliac. En effet, il voulait être le premier à peindre ces fleurs rares et nouvelles. Il effectue donc par la suite, plusieurs commandes à LM (1894-1904-1908).
 Plus de 300 toiles ont été recensées sur la thématique de ses nénuphars, dont une des plus connues : la série « les Nymphéas » exposée au Musée de l’Orangerie à Paris.
@@ -580,7 +596,9 @@
           <t>Le jardin de nos jours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son activité première reste la préservation de la collection nationale, la commercialisation de nénuphars rustiques et tropicaux, lotus ainsi que d’autres plantes aquatiques.
 Il est possible de visiter le parc individuellement ou en groupe (15/04-15/10)
@@ -614,7 +632,9 @@
           <t>Un Jardin Remarquable</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le jardin est classé Jardin Remarquable depuis 2004.
 Les critères d’attribution du label sont les suivants :
